--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value471.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value471.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.904578245353386</v>
+        <v>1.029659748077393</v>
       </c>
       <c r="B1">
-        <v>1.192364232515591</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.896621565510659</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>4.915270899689177</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>2.099339911270782</v>
+        <v>1.228700637817383</v>
       </c>
     </row>
   </sheetData>
